--- a/Document/TasksheetFinal.xlsx
+++ b/Document/TasksheetFinal.xlsx
@@ -1034,9 +1034,6 @@
       <alignment vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1061,9 +1058,6 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1086,6 +1080,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1392,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="C228" sqref="C228"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1438,17 +1438,17 @@
       </c>
       <c r="J1" s="11">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <v>1</v>
       </c>
       <c r="H2" s="11">
@@ -1473,9 +1473,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="5"/>
@@ -1483,7 +1483,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>1</v>
       </c>
       <c r="H3" s="11">
@@ -1500,9 +1500,9 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5"/>
@@ -1510,7 +1510,7 @@
       <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>1</v>
       </c>
       <c r="H4" s="11">
@@ -1527,15 +1527,15 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="14"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1550,9 +1550,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="5"/>
@@ -1560,7 +1560,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>1</v>
       </c>
       <c r="H6" s="11">
@@ -1577,9 +1577,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="5"/>
@@ -1587,7 +1587,7 @@
       <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>1</v>
       </c>
       <c r="H7" s="11">
@@ -1604,9 +1604,9 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>1</v>
       </c>
       <c r="H8" s="11">
@@ -1631,9 +1631,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="16" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>2</v>
       </c>
       <c r="H9" s="11">
@@ -1658,19 +1658,19 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75">
-      <c r="A10" s="12">
+      <c r="A10" s="31">
         <v>2</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1685,9 +1685,9 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="5"/>
@@ -1695,7 +1695,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>1</v>
       </c>
       <c r="H11" s="11">
@@ -1712,15 +1712,15 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="15" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="14"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1735,9 +1735,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="5"/>
@@ -1745,7 +1745,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>1</v>
       </c>
       <c r="H13" s="11">
@@ -1762,9 +1762,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="5"/>
@@ -1772,7 +1772,7 @@
       <c r="F14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>1</v>
       </c>
       <c r="H14" s="11">
@@ -1789,9 +1789,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="5"/>
@@ -1799,7 +1799,7 @@
       <c r="F15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>1</v>
       </c>
       <c r="H15" s="11">
@@ -1816,9 +1816,9 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>1</v>
       </c>
       <c r="H16" s="11">
@@ -1843,9 +1843,9 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>1</v>
       </c>
       <c r="H17" s="11">
@@ -1870,15 +1870,15 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="15" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="14"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1893,9 +1893,9 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="5"/>
@@ -1903,7 +1903,7 @@
       <c r="F19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <v>1</v>
       </c>
       <c r="H19" s="11">
@@ -1920,9 +1920,9 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="5"/>
@@ -1930,7 +1930,7 @@
         <v>8</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>1</v>
       </c>
       <c r="H20" s="11">
@@ -1947,9 +1947,9 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <v>1</v>
       </c>
       <c r="H21" s="11">
@@ -1974,9 +1974,9 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="16" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <v>2</v>
       </c>
       <c r="H22" s="11">
@@ -2001,13 +2001,13 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75">
-      <c r="A23" s="12">
+      <c r="A23" s="31">
         <v>3</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="5"/>
@@ -2015,7 +2015,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <v>2</v>
       </c>
       <c r="H23" s="11">
@@ -2032,15 +2032,15 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="15" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="14" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="14"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2055,9 +2055,9 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="16" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D25" s="5"/>
@@ -2065,7 +2065,7 @@
       <c r="F25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="13">
         <v>1</v>
       </c>
       <c r="H25" s="11">
@@ -2082,9 +2082,9 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="5" t="s">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="14">
+      <c r="G26" s="13">
         <v>2</v>
       </c>
       <c r="H26" s="11">
@@ -2109,15 +2109,15 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="12" t="s">
         <v>180</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="14"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2132,9 +2132,9 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="14">
+      <c r="G28" s="13">
         <v>1</v>
       </c>
       <c r="H28" s="11">
@@ -2159,8 +2159,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="6" t="s">
         <v>83</v>
       </c>
@@ -2169,7 +2169,7 @@
       <c r="F29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="13">
         <v>1</v>
       </c>
       <c r="H29" s="11">
@@ -2186,9 +2186,9 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="17" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="16" t="s">
         <v>181</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="14">
+      <c r="G30" s="13">
         <v>1</v>
       </c>
       <c r="H30" s="11">
@@ -2213,8 +2213,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="7" t="s">
         <v>84</v>
       </c>
@@ -2223,7 +2223,7 @@
       <c r="F31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="13">
         <v>1</v>
       </c>
       <c r="H31" s="11">
@@ -2240,8 +2240,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="7" t="s">
         <v>85</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>8</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="14">
+      <c r="G32" s="13">
         <v>1</v>
       </c>
       <c r="H32" s="11">
@@ -2267,8 +2267,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="7" t="s">
         <v>86</v>
       </c>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="14">
+      <c r="G33" s="13">
         <v>1</v>
       </c>
       <c r="H33" s="11">
@@ -2294,8 +2294,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="7" t="s">
         <v>87</v>
       </c>
@@ -2304,7 +2304,7 @@
       <c r="F34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="13">
         <v>1</v>
       </c>
       <c r="H34" s="11">
@@ -2321,8 +2321,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="7" t="s">
         <v>88</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>8</v>
       </c>
       <c r="F35" s="5"/>
-      <c r="G35" s="14">
+      <c r="G35" s="13">
         <v>1</v>
       </c>
       <c r="H35" s="11">
@@ -2348,8 +2348,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
       <c r="C36" s="7" t="s">
         <v>89</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>8</v>
       </c>
       <c r="F36" s="5"/>
-      <c r="G36" s="14">
+      <c r="G36" s="13">
         <v>1</v>
       </c>
       <c r="H36" s="11">
@@ -2375,8 +2375,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="7" t="s">
         <v>90</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>8</v>
       </c>
       <c r="F37" s="5"/>
-      <c r="G37" s="14">
+      <c r="G37" s="13">
         <v>1</v>
       </c>
       <c r="H37" s="11">
@@ -2402,8 +2402,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="7" t="s">
         <v>91</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="5"/>
-      <c r="G38" s="14">
+      <c r="G38" s="13">
         <v>1</v>
       </c>
       <c r="H38" s="11">
@@ -2429,8 +2429,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="7" t="s">
         <v>92</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>8</v>
       </c>
       <c r="F39" s="5"/>
-      <c r="G39" s="14">
+      <c r="G39" s="13">
         <v>1</v>
       </c>
       <c r="H39" s="11">
@@ -2456,8 +2456,8 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="7" t="s">
         <v>93</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>8</v>
       </c>
       <c r="F40" s="5"/>
-      <c r="G40" s="14">
+      <c r="G40" s="13">
         <v>1</v>
       </c>
       <c r="H40" s="11">
@@ -2483,8 +2483,8 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="7" t="s">
         <v>94</v>
       </c>
@@ -2493,7 +2493,7 @@
       <c r="F41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="13">
         <v>1</v>
       </c>
       <c r="H41" s="11">
@@ -2510,8 +2510,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="7" t="s">
         <v>95</v>
       </c>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="14">
+      <c r="G42" s="13">
         <v>1</v>
       </c>
       <c r="H42" s="11">
@@ -2537,8 +2537,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="7" t="s">
         <v>96</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="5"/>
-      <c r="G43" s="14">
+      <c r="G43" s="13">
         <v>1</v>
       </c>
       <c r="H43" s="11">
@@ -2564,8 +2564,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="7" t="s">
         <v>97</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>8</v>
       </c>
       <c r="F44" s="5"/>
-      <c r="G44" s="14">
+      <c r="G44" s="13">
         <v>1</v>
       </c>
       <c r="H44" s="11">
@@ -2591,8 +2591,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
       <c r="C45" s="7" t="s">
         <v>98</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>8</v>
       </c>
       <c r="F45" s="5"/>
-      <c r="G45" s="14">
+      <c r="G45" s="13">
         <v>1</v>
       </c>
       <c r="H45" s="11">
@@ -2618,8 +2618,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
       <c r="C46" s="7" t="s">
         <v>99</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>8</v>
       </c>
       <c r="F46" s="5"/>
-      <c r="G46" s="14">
+      <c r="G46" s="13">
         <v>1</v>
       </c>
       <c r="H46" s="11">
@@ -2645,8 +2645,8 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
       <c r="C47" s="7" t="s">
         <v>100</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>8</v>
       </c>
       <c r="F47" s="5"/>
-      <c r="G47" s="14">
+      <c r="G47" s="13">
         <v>1</v>
       </c>
       <c r="H47" s="11">
@@ -2672,8 +2672,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="7" t="s">
         <v>101</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>8</v>
       </c>
       <c r="F48" s="5"/>
-      <c r="G48" s="14">
+      <c r="G48" s="13">
         <v>1</v>
       </c>
       <c r="H48" s="11">
@@ -2699,8 +2699,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="7" t="s">
         <v>102</v>
       </c>
@@ -2709,7 +2709,7 @@
       <c r="F49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="13">
         <v>1</v>
       </c>
       <c r="H49" s="11">
@@ -2726,8 +2726,8 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
       <c r="C50" s="7" t="s">
         <v>103</v>
       </c>
@@ -2736,7 +2736,7 @@
       <c r="F50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="13">
         <v>1</v>
       </c>
       <c r="H50" s="11">
@@ -2753,8 +2753,8 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
       <c r="C51" s="7" t="s">
         <v>104</v>
       </c>
@@ -2763,7 +2763,7 @@
       <c r="F51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="13">
         <v>1</v>
       </c>
       <c r="H51" s="11">
@@ -2780,8 +2780,8 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="7" t="s">
         <v>105</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>8</v>
       </c>
       <c r="F52" s="5"/>
-      <c r="G52" s="14">
+      <c r="G52" s="13">
         <v>1</v>
       </c>
       <c r="H52" s="11">
@@ -2807,8 +2807,8 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="7" t="s">
         <v>106</v>
       </c>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="14">
+      <c r="G53" s="13">
         <v>1</v>
       </c>
       <c r="H53" s="11">
@@ -2834,8 +2834,8 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="7" t="s">
         <v>107</v>
       </c>
@@ -2844,7 +2844,7 @@
       <c r="F54" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="13">
         <v>1</v>
       </c>
       <c r="H54" s="11">
@@ -2861,8 +2861,8 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
       <c r="C55" s="7" t="s">
         <v>108</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>8</v>
       </c>
       <c r="F55" s="5"/>
-      <c r="G55" s="14">
+      <c r="G55" s="13">
         <v>1</v>
       </c>
       <c r="H55" s="11">
@@ -2888,8 +2888,8 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
       <c r="C56" s="7" t="s">
         <v>112</v>
       </c>
@@ -2898,7 +2898,7 @@
       <c r="F56" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="13">
         <v>1</v>
       </c>
       <c r="H56" s="11">
@@ -2915,8 +2915,8 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="7" t="s">
         <v>109</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>8</v>
       </c>
       <c r="F57" s="5"/>
-      <c r="G57" s="14">
+      <c r="G57" s="13">
         <v>1</v>
       </c>
       <c r="H57" s="11">
@@ -2942,8 +2942,8 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
       <c r="C58" s="7" t="s">
         <v>110</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="F58" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="13">
         <v>1</v>
       </c>
       <c r="H58" s="11">
@@ -2969,8 +2969,8 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
       <c r="C59" s="7" t="s">
         <v>111</v>
       </c>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="14">
+      <c r="G59" s="13">
         <v>1</v>
       </c>
       <c r="H59" s="11">
@@ -2996,9 +2996,9 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="13" t="s">
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D60" s="5"/>
@@ -3006,7 +3006,7 @@
       <c r="F60" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="13">
         <v>1</v>
       </c>
       <c r="H60" s="11">
@@ -3023,9 +3023,9 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13" t="s">
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D61" s="5"/>
@@ -3033,7 +3033,7 @@
         <v>8</v>
       </c>
       <c r="F61" s="5"/>
-      <c r="G61" s="14">
+      <c r="G61" s="13">
         <v>1</v>
       </c>
       <c r="H61" s="11">
@@ -3050,9 +3050,9 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="16" t="s">
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="14">
+      <c r="G62" s="13">
         <v>2</v>
       </c>
       <c r="H62" s="11">
@@ -3077,13 +3077,13 @@
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75">
-      <c r="A63" s="12">
+      <c r="A63" s="31">
         <v>4</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="14">
+      <c r="G63" s="13">
         <v>2</v>
       </c>
       <c r="H63" s="11">
@@ -3108,9 +3108,9 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="13" t="s">
+      <c r="A64" s="31"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D64" s="5"/>
@@ -3118,7 +3118,7 @@
         <v>8</v>
       </c>
       <c r="F64" s="5"/>
-      <c r="G64" s="14">
+      <c r="G64" s="13">
         <v>2</v>
       </c>
       <c r="H64" s="11">
@@ -3135,9 +3135,9 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="13" t="s">
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D65" s="5"/>
@@ -3145,7 +3145,7 @@
       <c r="F65" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G65" s="13">
         <v>2</v>
       </c>
       <c r="H65" s="11">
@@ -3162,9 +3162,9 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="13" t="s">
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D66" s="5"/>
@@ -3172,7 +3172,7 @@
       <c r="F66" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G66" s="13">
         <v>1</v>
       </c>
       <c r="H66" s="11">
@@ -3189,15 +3189,15 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="15" t="s">
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="14"/>
+      <c r="G67" s="13"/>
       <c r="H67" s="11">
         <f t="shared" ref="H67:H132" si="4">(IF(D67="O",G67,0))</f>
         <v>0</v>
@@ -3212,22 +3212,22 @@
       </c>
     </row>
     <row r="68" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="32" t="s">
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="14"/>
+      <c r="G68" s="13"/>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
     </row>
     <row r="69" spans="1:10" ht="15.75">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
+      <c r="A69" s="31"/>
+      <c r="B69" s="31"/>
       <c r="C69" s="7" t="s">
         <v>115</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>8</v>
       </c>
       <c r="F69" s="5"/>
-      <c r="G69" s="14">
+      <c r="G69" s="13">
         <v>1</v>
       </c>
       <c r="H69" s="11">
@@ -3253,8 +3253,8 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="7" t="s">
         <v>127</v>
       </c>
@@ -3263,7 +3263,7 @@
       <c r="F70" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G70" s="13">
         <v>1</v>
       </c>
       <c r="H70" s="11">
@@ -3280,8 +3280,8 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="7" t="s">
         <v>121</v>
       </c>
@@ -3290,7 +3290,7 @@
       <c r="F71" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G71" s="13">
         <v>1</v>
       </c>
       <c r="H71" s="11">
@@ -3307,8 +3307,8 @@
       </c>
     </row>
     <row r="72" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="7" t="s">
         <v>90</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>8</v>
       </c>
       <c r="F72" s="5"/>
-      <c r="G72" s="14">
+      <c r="G72" s="13">
         <v>1</v>
       </c>
       <c r="H72" s="11">
@@ -3334,8 +3334,8 @@
       </c>
     </row>
     <row r="73" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
+      <c r="A73" s="31"/>
+      <c r="B73" s="31"/>
       <c r="C73" s="7" t="s">
         <v>89</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>8</v>
       </c>
       <c r="F73" s="5"/>
-      <c r="G73" s="14">
+      <c r="G73" s="13">
         <v>1</v>
       </c>
       <c r="H73" s="11">
@@ -3361,8 +3361,8 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="7" t="s">
         <v>116</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>8</v>
       </c>
       <c r="F74" s="5"/>
-      <c r="G74" s="14">
+      <c r="G74" s="13">
         <v>1</v>
       </c>
       <c r="H74" s="11">
@@ -3388,8 +3388,8 @@
       </c>
     </row>
     <row r="75" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="7" t="s">
         <v>92</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>8</v>
       </c>
       <c r="F75" s="5"/>
-      <c r="G75" s="14">
+      <c r="G75" s="13">
         <v>1</v>
       </c>
       <c r="H75" s="11">
@@ -3415,8 +3415,8 @@
       </c>
     </row>
     <row r="76" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
       <c r="C76" s="7" t="s">
         <v>93</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>8</v>
       </c>
       <c r="F76" s="5"/>
-      <c r="G76" s="14">
+      <c r="G76" s="13">
         <v>1</v>
       </c>
       <c r="H76" s="11">
@@ -3442,8 +3442,8 @@
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
+      <c r="A77" s="31"/>
+      <c r="B77" s="31"/>
       <c r="C77" s="7" t="s">
         <v>117</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>8</v>
       </c>
       <c r="F77" s="5"/>
-      <c r="G77" s="14">
+      <c r="G77" s="13">
         <v>1</v>
       </c>
       <c r="H77" s="11">
@@ -3469,15 +3469,15 @@
       </c>
     </row>
     <row r="78" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="32" t="s">
+      <c r="A78" s="31"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="30" t="s">
         <v>214</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="14"/>
+      <c r="G78" s="13"/>
       <c r="H78" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3492,8 +3492,8 @@
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="7" t="s">
         <v>123</v>
       </c>
@@ -3502,7 +3502,7 @@
       <c r="F79" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G79" s="13">
         <v>1</v>
       </c>
       <c r="H79" s="11">
@@ -3519,8 +3519,8 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
+      <c r="A80" s="31"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="7" t="s">
         <v>118</v>
       </c>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="14">
+      <c r="G80" s="13">
         <v>1</v>
       </c>
       <c r="H80" s="11">
@@ -3546,8 +3546,8 @@
       </c>
     </row>
     <row r="81" spans="1:14" s="1" customFormat="1" ht="15.75">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
+      <c r="A81" s="31"/>
+      <c r="B81" s="31"/>
       <c r="C81" s="7" t="s">
         <v>119</v>
       </c>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="14">
+      <c r="G81" s="13">
         <v>1</v>
       </c>
       <c r="H81" s="11">
@@ -3573,8 +3573,8 @@
       </c>
     </row>
     <row r="82" spans="1:14" s="1" customFormat="1" ht="15.75">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
+      <c r="A82" s="31"/>
+      <c r="B82" s="31"/>
       <c r="C82" s="7" t="s">
         <v>120</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>8</v>
       </c>
       <c r="F82" s="5"/>
-      <c r="G82" s="14">
+      <c r="G82" s="13">
         <v>1</v>
       </c>
       <c r="H82" s="11">
@@ -3600,8 +3600,8 @@
       </c>
     </row>
     <row r="83" spans="1:14" s="1" customFormat="1" ht="15.75">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
+      <c r="A83" s="31"/>
+      <c r="B83" s="31"/>
       <c r="C83" s="7" t="s">
         <v>121</v>
       </c>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="14">
+      <c r="G83" s="13">
         <v>1</v>
       </c>
       <c r="H83" s="11">
@@ -3627,8 +3627,8 @@
       </c>
     </row>
     <row r="84" spans="1:14" ht="15.75">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
+      <c r="A84" s="31"/>
+      <c r="B84" s="31"/>
       <c r="C84" s="7" t="s">
         <v>122</v>
       </c>
@@ -3637,7 +3637,7 @@
       <c r="F84" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G84" s="13">
         <v>1</v>
       </c>
       <c r="H84" s="11">
@@ -3654,8 +3654,8 @@
       </c>
     </row>
     <row r="85" spans="1:14" ht="15.75">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
+      <c r="A85" s="31"/>
+      <c r="B85" s="31"/>
       <c r="C85" s="7" t="s">
         <v>123</v>
       </c>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="14">
+      <c r="G85" s="13">
         <v>1</v>
       </c>
       <c r="H85" s="11">
@@ -3681,8 +3681,8 @@
       </c>
     </row>
     <row r="86" spans="1:14" ht="15.75">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
+      <c r="A86" s="31"/>
+      <c r="B86" s="31"/>
       <c r="C86" s="7" t="s">
         <v>124</v>
       </c>
@@ -3691,7 +3691,7 @@
       <c r="F86" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G86" s="13">
         <v>1</v>
       </c>
       <c r="H86" s="11">
@@ -3708,8 +3708,8 @@
       </c>
     </row>
     <row r="87" spans="1:14" ht="15.75">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
+      <c r="A87" s="31"/>
+      <c r="B87" s="31"/>
       <c r="C87" s="7" t="s">
         <v>125</v>
       </c>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="14">
+      <c r="G87" s="13">
         <v>1</v>
       </c>
       <c r="H87" s="11">
@@ -3735,8 +3735,8 @@
       </c>
     </row>
     <row r="88" spans="1:14" ht="15.75">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
+      <c r="A88" s="31"/>
+      <c r="B88" s="31"/>
       <c r="C88" s="7" t="s">
         <v>126</v>
       </c>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="14">
+      <c r="G88" s="13">
         <v>1</v>
       </c>
       <c r="H88" s="11">
@@ -3766,15 +3766,15 @@
       </c>
     </row>
     <row r="89" spans="1:14" ht="15.75">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="18" t="s">
+      <c r="A89" s="31"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="14"/>
+      <c r="G89" s="13"/>
       <c r="H89" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3793,9 +3793,9 @@
       </c>
     </row>
     <row r="90" spans="1:14" ht="15.75">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13" t="s">
+      <c r="A90" s="31"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D90" s="5" t="s">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
-      <c r="G90" s="14">
+      <c r="G90" s="13">
         <v>2</v>
       </c>
       <c r="H90" s="11">
@@ -3824,15 +3824,15 @@
       </c>
     </row>
     <row r="91" spans="1:14" ht="15.75">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="18" t="s">
+      <c r="A91" s="31"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
-      <c r="G91" s="14"/>
+      <c r="G91" s="13"/>
       <c r="H91" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3851,9 +3851,9 @@
       </c>
     </row>
     <row r="92" spans="1:14" ht="15.75">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="19" t="s">
+      <c r="A92" s="31"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="18" t="s">
         <v>182</v>
       </c>
       <c r="D92" s="5"/>
@@ -3861,7 +3861,7 @@
         <v>8</v>
       </c>
       <c r="F92" s="5"/>
-      <c r="G92" s="14">
+      <c r="G92" s="13">
         <v>1</v>
       </c>
       <c r="H92" s="11">
@@ -3882,9 +3882,9 @@
       </c>
     </row>
     <row r="93" spans="1:14" ht="15.75">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="20" t="s">
+      <c r="A93" s="31"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="19" t="s">
         <v>128</v>
       </c>
       <c r="D93" s="5"/>
@@ -3892,7 +3892,7 @@
         <v>8</v>
       </c>
       <c r="F93" s="5"/>
-      <c r="G93" s="14">
+      <c r="G93" s="13">
         <v>1</v>
       </c>
       <c r="H93" s="11">
@@ -3913,9 +3913,9 @@
       </c>
     </row>
     <row r="94" spans="1:14" ht="15.75">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="20" t="s">
+      <c r="A94" s="31"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="19" t="s">
         <v>129</v>
       </c>
       <c r="D94" s="5"/>
@@ -3923,7 +3923,7 @@
         <v>8</v>
       </c>
       <c r="F94" s="5"/>
-      <c r="G94" s="14">
+      <c r="G94" s="13">
         <v>1</v>
       </c>
       <c r="H94" s="11">
@@ -3944,9 +3944,9 @@
       </c>
     </row>
     <row r="95" spans="1:14" ht="15.75">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="21" t="s">
+      <c r="A95" s="31"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="20" t="s">
         <v>130</v>
       </c>
       <c r="D95" s="5"/>
@@ -3954,7 +3954,7 @@
         <v>8</v>
       </c>
       <c r="F95" s="5"/>
-      <c r="G95" s="14">
+      <c r="G95" s="13">
         <v>1</v>
       </c>
       <c r="H95" s="11">
@@ -3975,15 +3975,15 @@
       </c>
     </row>
     <row r="96" spans="1:14" ht="15.75">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13" t="s">
+      <c r="A96" s="31"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="12" t="s">
         <v>183</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="14"/>
+      <c r="G96" s="13"/>
       <c r="H96" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4002,9 +4002,9 @@
       </c>
     </row>
     <row r="97" spans="1:14" ht="15.75">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="22" t="s">
+      <c r="A97" s="31"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="21" t="s">
         <v>131</v>
       </c>
       <c r="D97" s="5"/>
@@ -4012,7 +4012,7 @@
       <c r="F97" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G97" s="14">
+      <c r="G97" s="13">
         <v>1</v>
       </c>
       <c r="H97" s="11">
@@ -4033,9 +4033,9 @@
       </c>
     </row>
     <row r="98" spans="1:14" ht="15.75">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="23" t="s">
+      <c r="A98" s="31"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="22" t="s">
         <v>132</v>
       </c>
       <c r="D98" s="5"/>
@@ -4043,7 +4043,7 @@
       <c r="F98" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G98" s="14">
+      <c r="G98" s="13">
         <v>1</v>
       </c>
       <c r="H98" s="11">
@@ -4064,15 +4064,15 @@
       </c>
     </row>
     <row r="99" spans="1:14" ht="15.75">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13" t="s">
+      <c r="A99" s="31"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="12" t="s">
         <v>184</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
-      <c r="G99" s="14"/>
+      <c r="G99" s="13"/>
       <c r="H99" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4087,9 +4087,9 @@
       </c>
     </row>
     <row r="100" spans="1:14" ht="15.75">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13" t="s">
+      <c r="A100" s="31"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D100" s="5"/>
@@ -4097,7 +4097,7 @@
       <c r="F100" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="14">
+      <c r="G100" s="13">
         <v>1</v>
       </c>
       <c r="H100" s="11">
@@ -4114,9 +4114,9 @@
       </c>
     </row>
     <row r="101" spans="1:14" ht="15.75">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13" t="s">
+      <c r="A101" s="31"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="12" t="s">
         <v>134</v>
       </c>
       <c r="D101" s="5"/>
@@ -4124,7 +4124,7 @@
       <c r="F101" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="14">
+      <c r="G101" s="13">
         <v>1</v>
       </c>
       <c r="H101" s="11">
@@ -4141,9 +4141,9 @@
       </c>
     </row>
     <row r="102" spans="1:14" ht="15.75">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13" t="s">
+      <c r="A102" s="31"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="12" t="s">
         <v>135</v>
       </c>
       <c r="D102" s="5" t="s">
@@ -4151,7 +4151,7 @@
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
-      <c r="G102" s="14">
+      <c r="G102" s="13">
         <v>2</v>
       </c>
       <c r="H102" s="11">
@@ -4168,9 +4168,9 @@
       </c>
     </row>
     <row r="103" spans="1:14" ht="15.75">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="13" t="s">
+      <c r="A103" s="31"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="12" t="s">
         <v>136</v>
       </c>
       <c r="D103" s="5" t="s">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
-      <c r="G103" s="14">
+      <c r="G103" s="13">
         <v>2</v>
       </c>
       <c r="H103" s="11">
@@ -4195,17 +4195,17 @@
       </c>
     </row>
     <row r="104" spans="1:14" ht="15.75">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="13" t="s">
+      <c r="A104" s="31"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F104" s="13"/>
-      <c r="G104" s="14">
+      <c r="F104" s="12"/>
+      <c r="G104" s="13">
         <v>2</v>
       </c>
       <c r="H104" s="11">
@@ -4222,15 +4222,15 @@
       </c>
     </row>
     <row r="105" spans="1:14" ht="15.75">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="15" t="s">
+      <c r="A105" s="31"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
-      <c r="G105" s="14"/>
+      <c r="G105" s="13"/>
       <c r="H105" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4245,9 +4245,9 @@
       </c>
     </row>
     <row r="106" spans="1:14" ht="15.75">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="13" t="s">
+      <c r="A106" s="31"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D106" s="5" t="s">
@@ -4255,7 +4255,7 @@
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
-      <c r="G106" s="14">
+      <c r="G106" s="13">
         <v>2</v>
       </c>
       <c r="H106" s="11">
@@ -4272,9 +4272,9 @@
       </c>
     </row>
     <row r="107" spans="1:14" ht="15.75">
-      <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="13" t="s">
+      <c r="A107" s="31"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D107" s="5"/>
@@ -4282,7 +4282,7 @@
         <v>8</v>
       </c>
       <c r="F107" s="5"/>
-      <c r="G107" s="14">
+      <c r="G107" s="13">
         <v>2</v>
       </c>
       <c r="H107" s="11">
@@ -4299,9 +4299,9 @@
       </c>
     </row>
     <row r="108" spans="1:14" ht="15.75">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="13" t="s">
+      <c r="A108" s="31"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="12" t="s">
         <v>137</v>
       </c>
       <c r="D108" s="5"/>
@@ -4309,7 +4309,7 @@
         <v>8</v>
       </c>
       <c r="F108" s="5"/>
-      <c r="G108" s="14">
+      <c r="G108" s="13">
         <v>2</v>
       </c>
       <c r="H108" s="11">
@@ -4326,9 +4326,9 @@
       </c>
     </row>
     <row r="109" spans="1:14" ht="15.75">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="13" t="s">
+      <c r="A109" s="31"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="12" t="s">
         <v>138</v>
       </c>
       <c r="D109" s="5"/>
@@ -4336,7 +4336,7 @@
       <c r="F109" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G109" s="14">
+      <c r="G109" s="13">
         <v>2</v>
       </c>
       <c r="H109" s="11">
@@ -4353,9 +4353,9 @@
       </c>
     </row>
     <row r="110" spans="1:14" ht="15.75">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="13" t="s">
+      <c r="A110" s="31"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="12" t="s">
         <v>139</v>
       </c>
       <c r="D110" s="5" t="s">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
-      <c r="G110" s="14">
+      <c r="G110" s="13">
         <v>2</v>
       </c>
       <c r="H110" s="11">
@@ -4380,9 +4380,9 @@
       </c>
     </row>
     <row r="111" spans="1:14" ht="15.75">
-      <c r="A111" s="12"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="13" t="s">
+      <c r="A111" s="31"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D111" s="5" t="s">
@@ -4390,7 +4390,7 @@
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
-      <c r="G111" s="14">
+      <c r="G111" s="13">
         <v>2</v>
       </c>
       <c r="H111" s="11">
@@ -4407,19 +4407,19 @@
       </c>
     </row>
     <row r="112" spans="1:14" ht="15.75">
-      <c r="A112" s="24">
+      <c r="A112" s="32">
         <v>5</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="14">
+      <c r="G112" s="13">
         <v>1</v>
       </c>
       <c r="H112" s="11">
@@ -4436,15 +4436,15 @@
       </c>
     </row>
     <row r="113" spans="1:10" ht="15.75">
-      <c r="A113" s="24"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="13" t="s">
+      <c r="A113" s="32"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="12" t="s">
         <v>52</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
-      <c r="G113" s="14">
+      <c r="G113" s="13">
         <v>2</v>
       </c>
       <c r="H113" s="11">
@@ -4461,15 +4461,15 @@
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.75">
-      <c r="A114" s="24"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="13" t="s">
+      <c r="A114" s="32"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
-      <c r="G114" s="14">
+      <c r="G114" s="13">
         <v>2</v>
       </c>
       <c r="H114" s="11">
@@ -4486,15 +4486,15 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="15.75">
-      <c r="A115" s="24"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="13" t="s">
+      <c r="A115" s="32"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
-      <c r="G115" s="14">
+      <c r="G115" s="13">
         <v>1</v>
       </c>
       <c r="H115" s="11">
@@ -4511,15 +4511,15 @@
       </c>
     </row>
     <row r="116" spans="1:10" ht="15.75">
-      <c r="A116" s="24"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="15" t="s">
+      <c r="A116" s="32"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="14" t="s">
         <v>55</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
-      <c r="G116" s="14"/>
+      <c r="G116" s="13"/>
       <c r="H116" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4534,9 +4534,9 @@
       </c>
     </row>
     <row r="117" spans="1:10" ht="15.75">
-      <c r="A117" s="24"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="13" t="s">
+      <c r="A117" s="32"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D117" s="5" t="s">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
-      <c r="G117" s="14">
+      <c r="G117" s="13">
         <v>1</v>
       </c>
       <c r="H117" s="11">
@@ -4561,15 +4561,15 @@
       </c>
     </row>
     <row r="118" spans="1:10" ht="15.75">
-      <c r="A118" s="24"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="13" t="s">
+      <c r="A118" s="32"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="12" t="s">
         <v>185</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="14"/>
+      <c r="G118" s="13"/>
       <c r="H118" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4584,8 +4584,8 @@
       </c>
     </row>
     <row r="119" spans="1:10" ht="15.75">
-      <c r="A119" s="24"/>
-      <c r="B119" s="12"/>
+      <c r="A119" s="32"/>
+      <c r="B119" s="31"/>
       <c r="C119" s="7" t="s">
         <v>123</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>8</v>
       </c>
       <c r="F119" s="5"/>
-      <c r="G119" s="14">
+      <c r="G119" s="13">
         <v>1</v>
       </c>
       <c r="H119" s="11">
@@ -4611,8 +4611,8 @@
       </c>
     </row>
     <row r="120" spans="1:10" ht="15.75">
-      <c r="A120" s="24"/>
-      <c r="B120" s="12"/>
+      <c r="A120" s="32"/>
+      <c r="B120" s="31"/>
       <c r="C120" s="7" t="s">
         <v>196</v>
       </c>
@@ -4621,7 +4621,7 @@
       <c r="F120" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G120" s="14">
+      <c r="G120" s="13">
         <v>1</v>
       </c>
       <c r="H120" s="11">
@@ -4638,8 +4638,8 @@
       </c>
     </row>
     <row r="121" spans="1:10" ht="15.75">
-      <c r="A121" s="24"/>
-      <c r="B121" s="12"/>
+      <c r="A121" s="32"/>
+      <c r="B121" s="31"/>
       <c r="C121" s="7" t="s">
         <v>94</v>
       </c>
@@ -4648,7 +4648,7 @@
       <c r="F121" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G121" s="14">
+      <c r="G121" s="13">
         <v>1</v>
       </c>
       <c r="H121" s="11">
@@ -4665,8 +4665,8 @@
       </c>
     </row>
     <row r="122" spans="1:10" ht="15.75">
-      <c r="A122" s="24"/>
-      <c r="B122" s="12"/>
+      <c r="A122" s="32"/>
+      <c r="B122" s="31"/>
       <c r="C122" s="7" t="s">
         <v>98</v>
       </c>
@@ -4675,7 +4675,7 @@
       <c r="F122" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G122" s="14">
+      <c r="G122" s="13">
         <v>1</v>
       </c>
       <c r="H122" s="11">
@@ -4692,8 +4692,8 @@
       </c>
     </row>
     <row r="123" spans="1:10" ht="15.75">
-      <c r="A123" s="24"/>
-      <c r="B123" s="12"/>
+      <c r="A123" s="32"/>
+      <c r="B123" s="31"/>
       <c r="C123" s="7" t="s">
         <v>100</v>
       </c>
@@ -4702,7 +4702,7 @@
       <c r="F123" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G123" s="14">
+      <c r="G123" s="13">
         <v>1</v>
       </c>
       <c r="H123" s="11">
@@ -4719,8 +4719,8 @@
       </c>
     </row>
     <row r="124" spans="1:10" ht="15.75">
-      <c r="A124" s="24"/>
-      <c r="B124" s="12"/>
+      <c r="A124" s="32"/>
+      <c r="B124" s="31"/>
       <c r="C124" s="7" t="s">
         <v>197</v>
       </c>
@@ -4729,7 +4729,7 @@
       <c r="F124" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G124" s="14">
+      <c r="G124" s="13">
         <v>1</v>
       </c>
       <c r="H124" s="11">
@@ -4746,8 +4746,8 @@
       </c>
     </row>
     <row r="125" spans="1:10" ht="15.75">
-      <c r="A125" s="24"/>
-      <c r="B125" s="12"/>
+      <c r="A125" s="32"/>
+      <c r="B125" s="31"/>
       <c r="C125" s="7" t="s">
         <v>88</v>
       </c>
@@ -4756,7 +4756,7 @@
       <c r="F125" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G125" s="14">
+      <c r="G125" s="13">
         <v>1</v>
       </c>
       <c r="H125" s="11">
@@ -4773,8 +4773,8 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="15.75">
-      <c r="A126" s="24"/>
-      <c r="B126" s="12"/>
+      <c r="A126" s="32"/>
+      <c r="B126" s="31"/>
       <c r="C126" s="7" t="s">
         <v>89</v>
       </c>
@@ -4783,7 +4783,7 @@
       <c r="F126" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G126" s="14">
+      <c r="G126" s="13">
         <v>1</v>
       </c>
       <c r="H126" s="11">
@@ -4800,8 +4800,8 @@
       </c>
     </row>
     <row r="127" spans="1:10" ht="15.75">
-      <c r="A127" s="24"/>
-      <c r="B127" s="12"/>
+      <c r="A127" s="32"/>
+      <c r="B127" s="31"/>
       <c r="C127" s="7" t="s">
         <v>90</v>
       </c>
@@ -4810,7 +4810,7 @@
       <c r="F127" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G127" s="14">
+      <c r="G127" s="13">
         <v>1</v>
       </c>
       <c r="H127" s="11">
@@ -4827,8 +4827,8 @@
       </c>
     </row>
     <row r="128" spans="1:10" ht="15.75">
-      <c r="A128" s="24"/>
-      <c r="B128" s="12"/>
+      <c r="A128" s="32"/>
+      <c r="B128" s="31"/>
       <c r="C128" s="7" t="s">
         <v>91</v>
       </c>
@@ -4837,7 +4837,7 @@
       <c r="F128" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G128" s="14">
+      <c r="G128" s="13">
         <v>1</v>
       </c>
       <c r="H128" s="11">
@@ -4854,8 +4854,8 @@
       </c>
     </row>
     <row r="129" spans="1:10" ht="15.75">
-      <c r="A129" s="24"/>
-      <c r="B129" s="12"/>
+      <c r="A129" s="32"/>
+      <c r="B129" s="31"/>
       <c r="C129" s="7" t="s">
         <v>92</v>
       </c>
@@ -4864,7 +4864,7 @@
       <c r="F129" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G129" s="14">
+      <c r="G129" s="13">
         <v>1</v>
       </c>
       <c r="H129" s="11">
@@ -4881,8 +4881,8 @@
       </c>
     </row>
     <row r="130" spans="1:10" ht="15.75">
-      <c r="A130" s="24"/>
-      <c r="B130" s="12"/>
+      <c r="A130" s="32"/>
+      <c r="B130" s="31"/>
       <c r="C130" s="7" t="s">
         <v>93</v>
       </c>
@@ -4891,7 +4891,7 @@
       <c r="F130" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G130" s="14">
+      <c r="G130" s="13">
         <v>1</v>
       </c>
       <c r="H130" s="11">
@@ -4908,8 +4908,8 @@
       </c>
     </row>
     <row r="131" spans="1:10" ht="15.75">
-      <c r="A131" s="24"/>
-      <c r="B131" s="12"/>
+      <c r="A131" s="32"/>
+      <c r="B131" s="31"/>
       <c r="C131" s="7" t="s">
         <v>198</v>
       </c>
@@ -4918,7 +4918,7 @@
       <c r="F131" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G131" s="14">
+      <c r="G131" s="13">
         <v>1</v>
       </c>
       <c r="H131" s="11">
@@ -4935,8 +4935,8 @@
       </c>
     </row>
     <row r="132" spans="1:10" ht="15.75">
-      <c r="A132" s="24"/>
-      <c r="B132" s="12"/>
+      <c r="A132" s="32"/>
+      <c r="B132" s="31"/>
       <c r="C132" s="7" t="s">
         <v>199</v>
       </c>
@@ -4945,7 +4945,7 @@
       <c r="F132" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G132" s="14">
+      <c r="G132" s="13">
         <v>1</v>
       </c>
       <c r="H132" s="11">
@@ -4962,8 +4962,8 @@
       </c>
     </row>
     <row r="133" spans="1:10" ht="15.75">
-      <c r="A133" s="24"/>
-      <c r="B133" s="12"/>
+      <c r="A133" s="32"/>
+      <c r="B133" s="31"/>
       <c r="C133" s="7" t="s">
         <v>200</v>
       </c>
@@ -4972,7 +4972,7 @@
       <c r="F133" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G133" s="14">
+      <c r="G133" s="13">
         <v>1</v>
       </c>
       <c r="H133" s="11">
@@ -4989,8 +4989,8 @@
       </c>
     </row>
     <row r="134" spans="1:10" ht="15.75">
-      <c r="A134" s="24"/>
-      <c r="B134" s="12"/>
+      <c r="A134" s="32"/>
+      <c r="B134" s="31"/>
       <c r="C134" s="7" t="s">
         <v>194</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>8</v>
       </c>
       <c r="F134" s="5"/>
-      <c r="G134" s="14">
+      <c r="G134" s="13">
         <v>1</v>
       </c>
       <c r="H134" s="11">
@@ -5016,8 +5016,8 @@
       </c>
     </row>
     <row r="135" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A135" s="24"/>
-      <c r="B135" s="12"/>
+      <c r="A135" s="32"/>
+      <c r="B135" s="31"/>
       <c r="C135" s="7" t="s">
         <v>201</v>
       </c>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
-      <c r="G135" s="14">
+      <c r="G135" s="13">
         <v>4</v>
       </c>
       <c r="H135" s="11">
@@ -5043,9 +5043,9 @@
       </c>
     </row>
     <row r="136" spans="1:10" ht="15.75">
-      <c r="A136" s="24"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="13" t="s">
+      <c r="A136" s="32"/>
+      <c r="B136" s="31"/>
+      <c r="C136" s="12" t="s">
         <v>202</v>
       </c>
       <c r="D136" s="5" t="s">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
-      <c r="G136" s="14">
+      <c r="G136" s="13">
         <v>4</v>
       </c>
       <c r="H136" s="11">
@@ -5070,9 +5070,9 @@
       </c>
     </row>
     <row r="137" spans="1:10" ht="15.75">
-      <c r="A137" s="24"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="13" t="s">
+      <c r="A137" s="32"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="12" t="s">
         <v>57</v>
       </c>
       <c r="D137" s="5" t="s">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
-      <c r="G137" s="14">
+      <c r="G137" s="13">
         <v>1</v>
       </c>
       <c r="H137" s="11">
@@ -5097,13 +5097,13 @@
       </c>
     </row>
     <row r="138" spans="1:10" ht="15.75">
-      <c r="A138" s="24">
+      <c r="A138" s="32">
         <v>6</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B138" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C138" s="25" t="s">
+      <c r="C138" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="5" t="s">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
-      <c r="G138" s="14">
+      <c r="G138" s="13">
         <v>2</v>
       </c>
       <c r="H138" s="11">
@@ -5128,15 +5128,15 @@
       </c>
     </row>
     <row r="139" spans="1:10" ht="15.75">
-      <c r="A139" s="24"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="26" t="s">
+      <c r="A139" s="32"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="24" t="s">
         <v>58</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
-      <c r="G139" s="14"/>
+      <c r="G139" s="13"/>
       <c r="H139" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -5151,15 +5151,15 @@
       </c>
     </row>
     <row r="140" spans="1:10" ht="15.75">
-      <c r="A140" s="24"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="26" t="s">
+      <c r="A140" s="32"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="24" t="s">
         <v>59</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
-      <c r="G140" s="14"/>
+      <c r="G140" s="13"/>
       <c r="H140" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -5174,8 +5174,8 @@
       </c>
     </row>
     <row r="141" spans="1:10" ht="15.75">
-      <c r="A141" s="24"/>
-      <c r="B141" s="12"/>
+      <c r="A141" s="32"/>
+      <c r="B141" s="31"/>
       <c r="C141" s="7" t="s">
         <v>123</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>8</v>
       </c>
       <c r="F141" s="5"/>
-      <c r="G141" s="14">
+      <c r="G141" s="13">
         <v>1</v>
       </c>
       <c r="H141" s="11">
@@ -5201,8 +5201,8 @@
       </c>
     </row>
     <row r="142" spans="1:10" ht="15.75">
-      <c r="A142" s="24"/>
-      <c r="B142" s="12"/>
+      <c r="A142" s="32"/>
+      <c r="B142" s="31"/>
       <c r="C142" s="7" t="s">
         <v>94</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>8</v>
       </c>
       <c r="F142" s="5"/>
-      <c r="G142" s="14">
+      <c r="G142" s="13">
         <v>1</v>
       </c>
       <c r="H142" s="11">
@@ -5228,8 +5228,8 @@
       </c>
     </row>
     <row r="143" spans="1:10" ht="15.75">
-      <c r="A143" s="24"/>
-      <c r="B143" s="12"/>
+      <c r="A143" s="32"/>
+      <c r="B143" s="31"/>
       <c r="C143" s="7" t="s">
         <v>193</v>
       </c>
@@ -5238,7 +5238,7 @@
         <v>8</v>
       </c>
       <c r="F143" s="5"/>
-      <c r="G143" s="14">
+      <c r="G143" s="13">
         <v>1</v>
       </c>
       <c r="H143" s="11">
@@ -5255,8 +5255,8 @@
       </c>
     </row>
     <row r="144" spans="1:10" ht="15.75">
-      <c r="A144" s="24"/>
-      <c r="B144" s="12"/>
+      <c r="A144" s="32"/>
+      <c r="B144" s="31"/>
       <c r="C144" s="7" t="s">
         <v>194</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>8</v>
       </c>
       <c r="F144" s="5"/>
-      <c r="G144" s="14">
+      <c r="G144" s="13">
         <v>1</v>
       </c>
       <c r="H144" s="11">
@@ -5282,8 +5282,8 @@
       </c>
     </row>
     <row r="145" spans="1:10" ht="15.75">
-      <c r="A145" s="24"/>
-      <c r="B145" s="12"/>
+      <c r="A145" s="32"/>
+      <c r="B145" s="31"/>
       <c r="C145" s="7" t="s">
         <v>91</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>8</v>
       </c>
       <c r="F145" s="5"/>
-      <c r="G145" s="14">
+      <c r="G145" s="13">
         <v>1</v>
       </c>
       <c r="H145" s="11">
@@ -5309,8 +5309,8 @@
       </c>
     </row>
     <row r="146" spans="1:10" ht="15.75">
-      <c r="A146" s="24"/>
-      <c r="B146" s="12"/>
+      <c r="A146" s="32"/>
+      <c r="B146" s="31"/>
       <c r="C146" s="7" t="s">
         <v>195</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>8</v>
       </c>
       <c r="F146" s="5"/>
-      <c r="G146" s="14">
+      <c r="G146" s="13">
         <v>1</v>
       </c>
       <c r="H146" s="11">
@@ -5336,8 +5336,8 @@
       </c>
     </row>
     <row r="147" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A147" s="24"/>
-      <c r="B147" s="12"/>
+      <c r="A147" s="32"/>
+      <c r="B147" s="31"/>
       <c r="C147" s="7" t="s">
         <v>196</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>8</v>
       </c>
       <c r="F147" s="5"/>
-      <c r="G147" s="14">
+      <c r="G147" s="13">
         <v>1</v>
       </c>
       <c r="H147" s="11">
@@ -5363,8 +5363,8 @@
       </c>
     </row>
     <row r="148" spans="1:10" ht="15.75">
-      <c r="A148" s="24"/>
-      <c r="B148" s="12"/>
+      <c r="A148" s="32"/>
+      <c r="B148" s="31"/>
       <c r="C148" s="7" t="s">
         <v>98</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>8</v>
       </c>
       <c r="F148" s="5"/>
-      <c r="G148" s="14">
+      <c r="G148" s="13">
         <v>1</v>
       </c>
       <c r="H148" s="11">
@@ -5390,15 +5390,15 @@
       </c>
     </row>
     <row r="149" spans="1:10" ht="15.75">
-      <c r="A149" s="24"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="25" t="s">
+      <c r="A149" s="32"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="23" t="s">
         <v>186</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
-      <c r="G149" s="14"/>
+      <c r="G149" s="13"/>
       <c r="H149" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -5413,9 +5413,9 @@
       </c>
     </row>
     <row r="150" spans="1:10" ht="15.75">
-      <c r="A150" s="24"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="25" t="s">
+      <c r="A150" s="32"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="23" t="s">
         <v>187</v>
       </c>
       <c r="D150" s="5" t="s">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
-      <c r="G150" s="14">
+      <c r="G150" s="13">
         <v>1</v>
       </c>
       <c r="H150" s="11">
@@ -5440,9 +5440,9 @@
       </c>
     </row>
     <row r="151" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A151" s="24"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="22" t="s">
+      <c r="A151" s="32"/>
+      <c r="B151" s="31"/>
+      <c r="C151" s="21" t="s">
         <v>189</v>
       </c>
       <c r="D151" s="5" t="s">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
-      <c r="G151" s="14">
+      <c r="G151" s="13">
         <v>1</v>
       </c>
       <c r="H151" s="11">
@@ -5467,9 +5467,9 @@
       </c>
     </row>
     <row r="152" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A152" s="24"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="22" t="s">
+      <c r="A152" s="32"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="21" t="s">
         <v>190</v>
       </c>
       <c r="D152" s="5" t="s">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
-      <c r="G152" s="14">
+      <c r="G152" s="13">
         <v>1</v>
       </c>
       <c r="H152" s="11">
@@ -5494,9 +5494,9 @@
       </c>
     </row>
     <row r="153" spans="1:10" ht="15.75">
-      <c r="A153" s="24"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="25" t="s">
+      <c r="A153" s="32"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="23" t="s">
         <v>188</v>
       </c>
       <c r="D153" s="5" t="s">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
-      <c r="G153" s="14">
+      <c r="G153" s="13">
         <v>1</v>
       </c>
       <c r="H153" s="11">
@@ -5521,15 +5521,15 @@
       </c>
     </row>
     <row r="154" spans="1:10" ht="15.75">
-      <c r="A154" s="24"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="26" t="s">
+      <c r="A154" s="32"/>
+      <c r="B154" s="31"/>
+      <c r="C154" s="24" t="s">
         <v>191</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
-      <c r="G154" s="14"/>
+      <c r="G154" s="13"/>
       <c r="H154" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -5544,9 +5544,9 @@
       </c>
     </row>
     <row r="155" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A155" s="24"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="22" t="s">
+      <c r="A155" s="32"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="21" t="s">
         <v>114</v>
       </c>
       <c r="D155" s="5" t="s">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
-      <c r="G155" s="14">
+      <c r="G155" s="13">
         <v>1</v>
       </c>
       <c r="H155" s="11">
@@ -5571,9 +5571,9 @@
       </c>
     </row>
     <row r="156" spans="1:10" ht="15.75">
-      <c r="A156" s="24"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="25" t="s">
+      <c r="A156" s="32"/>
+      <c r="B156" s="31"/>
+      <c r="C156" s="23" t="s">
         <v>192</v>
       </c>
       <c r="D156" s="5" t="s">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
-      <c r="G156" s="14">
+      <c r="G156" s="13">
         <v>1</v>
       </c>
       <c r="H156" s="11">
@@ -5598,19 +5598,19 @@
       </c>
     </row>
     <row r="157" spans="1:10" ht="15.75">
-      <c r="A157" s="24">
+      <c r="A157" s="32">
         <v>7</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B157" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C157" s="26" t="s">
+      <c r="C157" s="24" t="s">
         <v>61</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
-      <c r="G157" s="14"/>
+      <c r="G157" s="13"/>
       <c r="H157" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -5625,9 +5625,9 @@
       </c>
     </row>
     <row r="158" spans="1:10" ht="15.75">
-      <c r="A158" s="24"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="27" t="s">
+      <c r="A158" s="32"/>
+      <c r="B158" s="31"/>
+      <c r="C158" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D158" s="5"/>
@@ -5635,7 +5635,7 @@
       <c r="F158" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G158" s="14">
+      <c r="G158" s="13">
         <v>1</v>
       </c>
       <c r="H158" s="11">
@@ -5652,15 +5652,15 @@
       </c>
     </row>
     <row r="159" spans="1:10" ht="15.75">
-      <c r="A159" s="24"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="26" t="s">
+      <c r="A159" s="32"/>
+      <c r="B159" s="31"/>
+      <c r="C159" s="24" t="s">
         <v>63</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
-      <c r="G159" s="14"/>
+      <c r="G159" s="13"/>
       <c r="H159" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -5675,9 +5675,9 @@
       </c>
     </row>
     <row r="160" spans="1:10" ht="15.75">
-      <c r="A160" s="24"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="26" t="s">
+      <c r="A160" s="32"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="24" t="s">
         <v>205</v>
       </c>
       <c r="D160" s="5"/>
@@ -5685,7 +5685,7 @@
       <c r="F160" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G160" s="14">
+      <c r="G160" s="13">
         <v>1</v>
       </c>
       <c r="H160" s="11">
@@ -5702,9 +5702,9 @@
       </c>
     </row>
     <row r="161" spans="1:10" ht="15.75">
-      <c r="A161" s="24"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="23" t="s">
+      <c r="A161" s="32"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="22" t="s">
         <v>169</v>
       </c>
       <c r="D161" s="5"/>
@@ -5712,7 +5712,7 @@
       <c r="F161" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G161" s="14">
+      <c r="G161" s="13">
         <v>1</v>
       </c>
       <c r="H161" s="11">
@@ -5729,9 +5729,9 @@
       </c>
     </row>
     <row r="162" spans="1:10" ht="15.75">
-      <c r="A162" s="24"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="23" t="s">
+      <c r="A162" s="32"/>
+      <c r="B162" s="31"/>
+      <c r="C162" s="22" t="s">
         <v>206</v>
       </c>
       <c r="D162" s="5"/>
@@ -5739,7 +5739,7 @@
       <c r="F162" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G162" s="14">
+      <c r="G162" s="13">
         <v>1</v>
       </c>
       <c r="H162" s="11">
@@ -5756,9 +5756,9 @@
       </c>
     </row>
     <row r="163" spans="1:10" ht="15.75">
-      <c r="A163" s="24"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="23" t="s">
+      <c r="A163" s="32"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="22" t="s">
         <v>171</v>
       </c>
       <c r="D163" s="5"/>
@@ -5766,7 +5766,7 @@
       <c r="F163" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G163" s="14">
+      <c r="G163" s="13">
         <v>1</v>
       </c>
       <c r="H163" s="11">
@@ -5783,9 +5783,9 @@
       </c>
     </row>
     <row r="164" spans="1:10" ht="15.75">
-      <c r="A164" s="24"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="23" t="s">
+      <c r="A164" s="32"/>
+      <c r="B164" s="31"/>
+      <c r="C164" s="22" t="s">
         <v>207</v>
       </c>
       <c r="D164" s="5"/>
@@ -5793,7 +5793,7 @@
       <c r="F164" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G164" s="14">
+      <c r="G164" s="13">
         <v>1</v>
       </c>
       <c r="H164" s="11">
@@ -5810,9 +5810,9 @@
       </c>
     </row>
     <row r="165" spans="1:10" ht="15.75">
-      <c r="A165" s="24"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="23" t="s">
+      <c r="A165" s="32"/>
+      <c r="B165" s="31"/>
+      <c r="C165" s="22" t="s">
         <v>175</v>
       </c>
       <c r="D165" s="5"/>
@@ -5820,7 +5820,7 @@
       <c r="F165" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G165" s="14">
+      <c r="G165" s="13">
         <v>1</v>
       </c>
       <c r="H165" s="11">
@@ -5837,9 +5837,9 @@
       </c>
     </row>
     <row r="166" spans="1:10" ht="15.75">
-      <c r="A166" s="24"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="23" t="s">
+      <c r="A166" s="32"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="22" t="s">
         <v>208</v>
       </c>
       <c r="D166" s="5"/>
@@ -5847,7 +5847,7 @@
       <c r="F166" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G166" s="14">
+      <c r="G166" s="13">
         <v>1</v>
       </c>
       <c r="H166" s="11">
@@ -5864,9 +5864,9 @@
       </c>
     </row>
     <row r="167" spans="1:10" ht="15.75">
-      <c r="A167" s="24"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="23" t="s">
+      <c r="A167" s="32"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="22" t="s">
         <v>164</v>
       </c>
       <c r="D167" s="5"/>
@@ -5874,7 +5874,7 @@
       <c r="F167" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G167" s="14">
+      <c r="G167" s="13">
         <v>1</v>
       </c>
       <c r="H167" s="11">
@@ -5891,9 +5891,9 @@
       </c>
     </row>
     <row r="168" spans="1:10" ht="15.75">
-      <c r="A168" s="24"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="23" t="s">
+      <c r="A168" s="32"/>
+      <c r="B168" s="31"/>
+      <c r="C168" s="22" t="s">
         <v>209</v>
       </c>
       <c r="D168" s="5"/>
@@ -5901,7 +5901,7 @@
         <v>8</v>
       </c>
       <c r="F168" s="5"/>
-      <c r="G168" s="14">
+      <c r="G168" s="13">
         <v>1</v>
       </c>
       <c r="H168" s="11">
@@ -5918,9 +5918,9 @@
       </c>
     </row>
     <row r="169" spans="1:10" ht="15.75">
-      <c r="A169" s="24"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="23" t="s">
+      <c r="A169" s="32"/>
+      <c r="B169" s="31"/>
+      <c r="C169" s="22" t="s">
         <v>162</v>
       </c>
       <c r="D169" s="5"/>
@@ -5928,7 +5928,7 @@
         <v>8</v>
       </c>
       <c r="F169" s="5"/>
-      <c r="G169" s="14">
+      <c r="G169" s="13">
         <v>1</v>
       </c>
       <c r="H169" s="11">
@@ -5945,9 +5945,9 @@
       </c>
     </row>
     <row r="170" spans="1:10" ht="15.75">
-      <c r="A170" s="24"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="23" t="s">
+      <c r="A170" s="32"/>
+      <c r="B170" s="31"/>
+      <c r="C170" s="22" t="s">
         <v>210</v>
       </c>
       <c r="D170" s="5"/>
@@ -5955,7 +5955,7 @@
         <v>8</v>
       </c>
       <c r="F170" s="5"/>
-      <c r="G170" s="14">
+      <c r="G170" s="13">
         <v>1</v>
       </c>
       <c r="H170" s="11">
@@ -5972,9 +5972,9 @@
       </c>
     </row>
     <row r="171" spans="1:10" ht="15.75">
-      <c r="A171" s="24"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="31" t="s">
+      <c r="A171" s="32"/>
+      <c r="B171" s="31"/>
+      <c r="C171" s="29" t="s">
         <v>211</v>
       </c>
       <c r="D171" s="5"/>
@@ -5982,7 +5982,7 @@
         <v>8</v>
       </c>
       <c r="F171" s="5"/>
-      <c r="G171" s="14">
+      <c r="G171" s="13">
         <v>1</v>
       </c>
       <c r="H171" s="11">
@@ -5999,9 +5999,9 @@
       </c>
     </row>
     <row r="172" spans="1:10" ht="15.75">
-      <c r="A172" s="24"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="23" t="s">
+      <c r="A172" s="32"/>
+      <c r="B172" s="31"/>
+      <c r="C172" s="22" t="s">
         <v>179</v>
       </c>
       <c r="D172" s="5"/>
@@ -6009,7 +6009,7 @@
         <v>8</v>
       </c>
       <c r="F172" s="5"/>
-      <c r="G172" s="14">
+      <c r="G172" s="13">
         <v>1</v>
       </c>
       <c r="H172" s="11">
@@ -6026,15 +6026,15 @@
       </c>
     </row>
     <row r="173" spans="1:10" ht="15.75">
-      <c r="A173" s="24"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="28" t="s">
+      <c r="A173" s="32"/>
+      <c r="B173" s="31"/>
+      <c r="C173" s="26" t="s">
         <v>212</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
-      <c r="G173" s="14"/>
+      <c r="G173" s="13"/>
       <c r="H173" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -6049,9 +6049,9 @@
       </c>
     </row>
     <row r="174" spans="1:10" ht="15.75">
-      <c r="A174" s="24"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="31" t="s">
+      <c r="A174" s="32"/>
+      <c r="B174" s="31"/>
+      <c r="C174" s="29" t="s">
         <v>213</v>
       </c>
       <c r="D174" s="5"/>
@@ -6059,7 +6059,7 @@
       <c r="F174" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G174" s="14">
+      <c r="G174" s="13">
         <v>1</v>
       </c>
       <c r="H174" s="11">
@@ -6076,9 +6076,9 @@
       </c>
     </row>
     <row r="175" spans="1:10" ht="15.75">
-      <c r="A175" s="24"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="23" t="s">
+      <c r="A175" s="32"/>
+      <c r="B175" s="31"/>
+      <c r="C175" s="22" t="s">
         <v>113</v>
       </c>
       <c r="D175" s="5"/>
@@ -6086,7 +6086,7 @@
       <c r="F175" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G175" s="14">
+      <c r="G175" s="13">
         <v>1</v>
       </c>
       <c r="H175" s="11">
@@ -6103,9 +6103,9 @@
       </c>
     </row>
     <row r="176" spans="1:10" ht="15.75">
-      <c r="A176" s="24"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="23" t="s">
+      <c r="A176" s="32"/>
+      <c r="B176" s="31"/>
+      <c r="C176" s="22" t="s">
         <v>140</v>
       </c>
       <c r="D176" s="5"/>
@@ -6113,7 +6113,7 @@
       <c r="F176" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G176" s="14">
+      <c r="G176" s="13">
         <v>1</v>
       </c>
       <c r="H176" s="11">
@@ -6130,15 +6130,15 @@
       </c>
     </row>
     <row r="177" spans="1:10" ht="15.75">
-      <c r="A177" s="24"/>
-      <c r="B177" s="12"/>
-      <c r="C177" s="26" t="s">
+      <c r="A177" s="32"/>
+      <c r="B177" s="31"/>
+      <c r="C177" s="24" t="s">
         <v>64</v>
       </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
-      <c r="G177" s="14"/>
+      <c r="G177" s="13"/>
       <c r="H177" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -6153,9 +6153,9 @@
       </c>
     </row>
     <row r="178" spans="1:10" ht="15.75">
-      <c r="A178" s="24"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="25" t="s">
+      <c r="A178" s="32"/>
+      <c r="B178" s="31"/>
+      <c r="C178" s="23" t="s">
         <v>203</v>
       </c>
       <c r="D178" s="5"/>
@@ -6163,7 +6163,7 @@
       <c r="F178" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G178" s="14">
+      <c r="G178" s="13">
         <v>1</v>
       </c>
       <c r="H178" s="11">
@@ -6180,9 +6180,9 @@
       </c>
     </row>
     <row r="179" spans="1:10" ht="15.75">
-      <c r="A179" s="24"/>
-      <c r="B179" s="12"/>
-      <c r="C179" s="25" t="s">
+      <c r="A179" s="32"/>
+      <c r="B179" s="31"/>
+      <c r="C179" s="23" t="s">
         <v>204</v>
       </c>
       <c r="D179" s="5"/>
@@ -6190,7 +6190,7 @@
       <c r="F179" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G179" s="14">
+      <c r="G179" s="13">
         <v>1</v>
       </c>
       <c r="H179" s="11">
@@ -6207,9 +6207,9 @@
       </c>
     </row>
     <row r="180" spans="1:10" ht="15.75">
-      <c r="A180" s="24"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="26" t="s">
+      <c r="A180" s="32"/>
+      <c r="B180" s="31"/>
+      <c r="C180" s="24" t="s">
         <v>144</v>
       </c>
       <c r="D180" s="5" t="s">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
-      <c r="G180" s="14">
+      <c r="G180" s="13">
         <v>3</v>
       </c>
       <c r="H180" s="11">
@@ -6234,9 +6234,9 @@
       </c>
     </row>
     <row r="181" spans="1:10" ht="15.75">
-      <c r="A181" s="24"/>
-      <c r="B181" s="12"/>
-      <c r="C181" s="26" t="s">
+      <c r="A181" s="32"/>
+      <c r="B181" s="31"/>
+      <c r="C181" s="24" t="s">
         <v>147</v>
       </c>
       <c r="D181" s="5" t="s">
@@ -6244,7 +6244,7 @@
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
-      <c r="G181" s="14">
+      <c r="G181" s="13">
         <v>3</v>
       </c>
       <c r="H181" s="11">
@@ -6261,13 +6261,13 @@
       </c>
     </row>
     <row r="182" spans="1:10" ht="15.75">
-      <c r="A182" s="24">
-        <v>8</v>
-      </c>
-      <c r="B182" s="12" t="s">
+      <c r="A182" s="32">
+        <v>8</v>
+      </c>
+      <c r="B182" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C182" s="25" t="s">
+      <c r="C182" s="23" t="s">
         <v>66</v>
       </c>
       <c r="D182" s="5"/>
@@ -6275,7 +6275,7 @@
         <v>8</v>
       </c>
       <c r="F182" s="5"/>
-      <c r="G182" s="14">
+      <c r="G182" s="13">
         <v>1</v>
       </c>
       <c r="H182" s="11">
@@ -6292,9 +6292,9 @@
       </c>
     </row>
     <row r="183" spans="1:10" ht="15.75">
-      <c r="A183" s="24"/>
-      <c r="B183" s="12"/>
-      <c r="C183" s="25" t="s">
+      <c r="A183" s="32"/>
+      <c r="B183" s="31"/>
+      <c r="C183" s="23" t="s">
         <v>67</v>
       </c>
       <c r="D183" s="5"/>
@@ -6302,7 +6302,7 @@
         <v>8</v>
       </c>
       <c r="F183" s="5"/>
-      <c r="G183" s="14">
+      <c r="G183" s="13">
         <v>1</v>
       </c>
       <c r="H183" s="11">
@@ -6319,13 +6319,13 @@
       </c>
     </row>
     <row r="184" spans="1:10" ht="15.75">
-      <c r="A184" s="29">
+      <c r="A184" s="27">
         <v>9</v>
       </c>
-      <c r="B184" s="30" t="s">
+      <c r="B184" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C184" s="25" t="s">
+      <c r="C184" s="23" t="s">
         <v>69</v>
       </c>
       <c r="D184" s="5" t="s">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
-      <c r="G184" s="14">
+      <c r="G184" s="13">
         <v>5</v>
       </c>
       <c r="H184" s="11">
@@ -6350,13 +6350,13 @@
       </c>
     </row>
     <row r="185" spans="1:10" ht="15.75">
-      <c r="A185" s="29">
+      <c r="A185" s="27">
         <v>10</v>
       </c>
-      <c r="B185" s="30" t="s">
+      <c r="B185" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C185" s="25" t="s">
+      <c r="C185" s="23" t="s">
         <v>71</v>
       </c>
       <c r="D185" s="5"/>
@@ -6364,7 +6364,7 @@
       <c r="F185" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G185" s="14">
+      <c r="G185" s="13">
         <v>1</v>
       </c>
       <c r="H185" s="11">
@@ -6381,13 +6381,13 @@
       </c>
     </row>
     <row r="186" spans="1:10" ht="15.75">
-      <c r="A186" s="24">
+      <c r="A186" s="32">
         <v>12</v>
       </c>
-      <c r="B186" s="12" t="s">
+      <c r="B186" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C186" s="27" t="s">
+      <c r="C186" s="25" t="s">
         <v>140</v>
       </c>
       <c r="D186" s="5"/>
@@ -6395,7 +6395,7 @@
       <c r="F186" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G186" s="14">
+      <c r="G186" s="13">
         <v>1</v>
       </c>
       <c r="H186" s="11">
@@ -6412,9 +6412,9 @@
       </c>
     </row>
     <row r="187" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A187" s="24"/>
-      <c r="B187" s="12"/>
-      <c r="C187" s="27" t="s">
+      <c r="A187" s="32"/>
+      <c r="B187" s="31"/>
+      <c r="C187" s="25" t="s">
         <v>143</v>
       </c>
       <c r="D187" s="5"/>
@@ -6422,7 +6422,7 @@
       <c r="F187" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G187" s="14">
+      <c r="G187" s="13">
         <v>1</v>
       </c>
       <c r="H187" s="11">
@@ -6439,9 +6439,9 @@
       </c>
     </row>
     <row r="188" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A188" s="24"/>
-      <c r="B188" s="12"/>
-      <c r="C188" s="27" t="s">
+      <c r="A188" s="32"/>
+      <c r="B188" s="31"/>
+      <c r="C188" s="25" t="s">
         <v>142</v>
       </c>
       <c r="D188" s="5"/>
@@ -6449,7 +6449,7 @@
       <c r="F188" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G188" s="14">
+      <c r="G188" s="13">
         <v>1</v>
       </c>
       <c r="H188" s="11">
@@ -6466,9 +6466,9 @@
       </c>
     </row>
     <row r="189" spans="1:10" ht="15.75">
-      <c r="A189" s="24"/>
-      <c r="B189" s="12"/>
-      <c r="C189" s="25" t="s">
+      <c r="A189" s="32"/>
+      <c r="B189" s="31"/>
+      <c r="C189" s="23" t="s">
         <v>113</v>
       </c>
       <c r="D189" s="5"/>
@@ -6476,8 +6476,8 @@
       <c r="F189" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G189" s="14">
-        <v>1</v>
+      <c r="G189" s="13">
+        <v>2</v>
       </c>
       <c r="H189" s="11">
         <f t="shared" si="10"/>
@@ -6489,14 +6489,14 @@
       </c>
       <c r="J189" s="11">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="15.75">
-      <c r="A190" s="24">
+      <c r="A190" s="32">
         <v>13</v>
       </c>
-      <c r="B190" s="12" t="s">
+      <c r="B190" s="31" t="s">
         <v>72</v>
       </c>
       <c r="C190" s="3" t="s">
@@ -6505,7 +6505,7 @@
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
-      <c r="G190" s="14">
+      <c r="G190" s="13">
         <v>1</v>
       </c>
       <c r="H190" s="11">
@@ -6522,8 +6522,8 @@
       </c>
     </row>
     <row r="191" spans="1:10" ht="15.75">
-      <c r="A191" s="24"/>
-      <c r="B191" s="12"/>
+      <c r="A191" s="32"/>
+      <c r="B191" s="31"/>
       <c r="C191" s="3" t="s">
         <v>163</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>8</v>
       </c>
       <c r="F191" s="5"/>
-      <c r="G191" s="14">
+      <c r="G191" s="13">
         <v>1</v>
       </c>
       <c r="H191" s="11">
@@ -6549,8 +6549,8 @@
       </c>
     </row>
     <row r="192" spans="1:10" ht="15.75">
-      <c r="A192" s="24"/>
-      <c r="B192" s="12"/>
+      <c r="A192" s="32"/>
+      <c r="B192" s="31"/>
       <c r="C192" s="4" t="s">
         <v>161</v>
       </c>
@@ -6559,7 +6559,7 @@
         <v>8</v>
       </c>
       <c r="F192" s="5"/>
-      <c r="G192" s="14">
+      <c r="G192" s="13">
         <v>1</v>
       </c>
       <c r="H192" s="11">
@@ -6576,8 +6576,8 @@
       </c>
     </row>
     <row r="193" spans="1:10" ht="15.75">
-      <c r="A193" s="24"/>
-      <c r="B193" s="12"/>
+      <c r="A193" s="32"/>
+      <c r="B193" s="31"/>
       <c r="C193" s="3" t="s">
         <v>164</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>8</v>
       </c>
       <c r="F193" s="5"/>
-      <c r="G193" s="14">
+      <c r="G193" s="13">
         <v>1</v>
       </c>
       <c r="H193" s="11">
@@ -6603,8 +6603,8 @@
       </c>
     </row>
     <row r="194" spans="1:10" ht="15.75">
-      <c r="A194" s="24"/>
-      <c r="B194" s="12"/>
+      <c r="A194" s="32"/>
+      <c r="B194" s="31"/>
       <c r="C194" s="3" t="s">
         <v>165</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>8</v>
       </c>
       <c r="F194" s="5"/>
-      <c r="G194" s="14">
+      <c r="G194" s="13">
         <v>1</v>
       </c>
       <c r="H194" s="11">
@@ -6630,8 +6630,8 @@
       </c>
     </row>
     <row r="195" spans="1:10" ht="15.75">
-      <c r="A195" s="24"/>
-      <c r="B195" s="12"/>
+      <c r="A195" s="32"/>
+      <c r="B195" s="31"/>
       <c r="C195" s="3" t="s">
         <v>166</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>8</v>
       </c>
       <c r="F195" s="5"/>
-      <c r="G195" s="14">
+      <c r="G195" s="13">
         <v>1</v>
       </c>
       <c r="H195" s="11">
@@ -6657,8 +6657,8 @@
       </c>
     </row>
     <row r="196" spans="1:10" ht="15.75">
-      <c r="A196" s="24"/>
-      <c r="B196" s="12"/>
+      <c r="A196" s="32"/>
+      <c r="B196" s="31"/>
       <c r="C196" s="3" t="s">
         <v>167</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>8</v>
       </c>
       <c r="F196" s="5"/>
-      <c r="G196" s="14">
+      <c r="G196" s="13">
         <v>1</v>
       </c>
       <c r="H196" s="11">
@@ -6684,8 +6684,8 @@
       </c>
     </row>
     <row r="197" spans="1:10" ht="15.75">
-      <c r="A197" s="24"/>
-      <c r="B197" s="12"/>
+      <c r="A197" s="32"/>
+      <c r="B197" s="31"/>
       <c r="C197" s="3" t="s">
         <v>168</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>8</v>
       </c>
       <c r="F197" s="5"/>
-      <c r="G197" s="14">
+      <c r="G197" s="13">
         <v>1</v>
       </c>
       <c r="H197" s="11">
@@ -6711,8 +6711,8 @@
       </c>
     </row>
     <row r="198" spans="1:10" ht="15.75">
-      <c r="A198" s="24"/>
-      <c r="B198" s="12"/>
+      <c r="A198" s="32"/>
+      <c r="B198" s="31"/>
       <c r="C198" s="3" t="s">
         <v>178</v>
       </c>
@@ -6721,7 +6721,7 @@
       <c r="F198" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G198" s="14">
+      <c r="G198" s="13">
         <v>1</v>
       </c>
       <c r="H198" s="11">
@@ -6738,8 +6738,8 @@
       </c>
     </row>
     <row r="199" spans="1:10" ht="15.75">
-      <c r="A199" s="24"/>
-      <c r="B199" s="12"/>
+      <c r="A199" s="32"/>
+      <c r="B199" s="31"/>
       <c r="C199" s="3" t="s">
         <v>179</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>8</v>
       </c>
       <c r="F199" s="5"/>
-      <c r="G199" s="14">
+      <c r="G199" s="13">
         <v>1</v>
       </c>
       <c r="H199" s="11">
@@ -6765,8 +6765,8 @@
       </c>
     </row>
     <row r="200" spans="1:10" ht="15.75">
-      <c r="A200" s="24"/>
-      <c r="B200" s="12"/>
+      <c r="A200" s="32"/>
+      <c r="B200" s="31"/>
       <c r="C200" s="3" t="s">
         <v>169</v>
       </c>
@@ -6775,7 +6775,7 @@
       <c r="F200" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G200" s="14">
+      <c r="G200" s="13">
         <v>1</v>
       </c>
       <c r="H200" s="11">
@@ -6792,8 +6792,8 @@
       </c>
     </row>
     <row r="201" spans="1:10" ht="15.75">
-      <c r="A201" s="24"/>
-      <c r="B201" s="12"/>
+      <c r="A201" s="32"/>
+      <c r="B201" s="31"/>
       <c r="C201" s="3" t="s">
         <v>170</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>8</v>
       </c>
       <c r="F201" s="5"/>
-      <c r="G201" s="14">
+      <c r="G201" s="13">
         <v>1</v>
       </c>
       <c r="H201" s="11">
@@ -6819,8 +6819,8 @@
       </c>
     </row>
     <row r="202" spans="1:10" ht="15.75">
-      <c r="A202" s="24"/>
-      <c r="B202" s="12"/>
+      <c r="A202" s="32"/>
+      <c r="B202" s="31"/>
       <c r="C202" s="3" t="s">
         <v>114</v>
       </c>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
-      <c r="G202" s="14">
+      <c r="G202" s="13">
         <v>1</v>
       </c>
       <c r="H202" s="11">
@@ -6846,17 +6846,17 @@
       </c>
     </row>
     <row r="203" spans="1:10" ht="15.75">
-      <c r="A203" s="24"/>
-      <c r="B203" s="12"/>
+      <c r="A203" s="32"/>
+      <c r="B203" s="31"/>
       <c r="C203" s="3" t="s">
         <v>171</v>
       </c>
       <c r="D203" s="5"/>
-      <c r="E203" s="5"/>
-      <c r="F203" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G203" s="14">
+      <c r="E203" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F203" s="5"/>
+      <c r="G203" s="13">
         <v>1</v>
       </c>
       <c r="H203" s="11">
@@ -6865,25 +6865,25 @@
       </c>
       <c r="I203" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" s="11">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="15.75">
-      <c r="A204" s="24"/>
-      <c r="B204" s="12"/>
+      <c r="A204" s="32"/>
+      <c r="B204" s="31"/>
       <c r="C204" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D204" s="5"/>
-      <c r="E204" s="5"/>
-      <c r="F204" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G204" s="14">
+      <c r="E204" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F204" s="5"/>
+      <c r="G204" s="13">
         <v>1</v>
       </c>
       <c r="H204" s="11">
@@ -6892,25 +6892,25 @@
       </c>
       <c r="I204" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" s="11">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="15.75">
-      <c r="A205" s="24"/>
-      <c r="B205" s="12"/>
+      <c r="A205" s="32"/>
+      <c r="B205" s="31"/>
       <c r="C205" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
-      <c r="F205" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G205" s="14">
+      <c r="E205" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F205" s="5"/>
+      <c r="G205" s="13">
         <v>1</v>
       </c>
       <c r="H205" s="11">
@@ -6919,16 +6919,16 @@
       </c>
       <c r="I205" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" s="11">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="15.75">
-      <c r="A206" s="24"/>
-      <c r="B206" s="12"/>
+      <c r="A206" s="32"/>
+      <c r="B206" s="31"/>
       <c r="C206" s="3" t="s">
         <v>174</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>8</v>
       </c>
       <c r="F206" s="5"/>
-      <c r="G206" s="14">
+      <c r="G206" s="13">
         <v>1</v>
       </c>
       <c r="H206" s="11">
@@ -6954,17 +6954,17 @@
       </c>
     </row>
     <row r="207" spans="1:10" ht="15.75">
-      <c r="A207" s="24"/>
-      <c r="B207" s="12"/>
+      <c r="A207" s="32"/>
+      <c r="B207" s="31"/>
       <c r="C207" s="3" t="s">
         <v>175</v>
       </c>
       <c r="D207" s="5"/>
-      <c r="E207" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F207" s="5"/>
-      <c r="G207" s="14">
+      <c r="E207" s="5"/>
+      <c r="F207" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G207" s="13">
         <v>1</v>
       </c>
       <c r="H207" s="11">
@@ -6973,25 +6973,25 @@
       </c>
       <c r="I207" s="11">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="15.75">
-      <c r="A208" s="24"/>
-      <c r="B208" s="12"/>
+      <c r="A208" s="32"/>
+      <c r="B208" s="31"/>
       <c r="C208" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D208" s="5"/>
-      <c r="E208" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F208" s="5"/>
-      <c r="G208" s="14">
+      <c r="E208" s="5"/>
+      <c r="F208" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G208" s="13">
         <v>1</v>
       </c>
       <c r="H208" s="11">
@@ -7000,25 +7000,25 @@
       </c>
       <c r="I208" s="11">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="15.75">
-      <c r="A209" s="24"/>
-      <c r="B209" s="12"/>
+      <c r="A209" s="32"/>
+      <c r="B209" s="31"/>
       <c r="C209" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D209" s="5"/>
-      <c r="E209" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F209" s="5"/>
-      <c r="G209" s="14">
+      <c r="E209" s="5"/>
+      <c r="F209" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G209" s="13">
         <v>1</v>
       </c>
       <c r="H209" s="11">
@@ -7027,17 +7027,17 @@
       </c>
       <c r="I209" s="11">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="15.75">
-      <c r="A210" s="24"/>
-      <c r="B210" s="12"/>
-      <c r="C210" s="25" t="s">
+      <c r="A210" s="32"/>
+      <c r="B210" s="31"/>
+      <c r="C210" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D210" s="5"/>
@@ -7045,7 +7045,7 @@
         <v>8</v>
       </c>
       <c r="F210" s="5"/>
-      <c r="G210" s="14">
+      <c r="G210" s="13">
         <v>1</v>
       </c>
       <c r="H210" s="11">
@@ -7062,13 +7062,13 @@
       </c>
     </row>
     <row r="211" spans="1:10" ht="15.75">
-      <c r="A211" s="24">
+      <c r="A211" s="32">
         <v>14</v>
       </c>
-      <c r="B211" s="12" t="s">
+      <c r="B211" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C211" s="25" t="s">
+      <c r="C211" s="23" t="s">
         <v>74</v>
       </c>
       <c r="D211" s="5" t="s">
@@ -7076,7 +7076,7 @@
       </c>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
-      <c r="G211" s="14">
+      <c r="G211" s="13">
         <v>5</v>
       </c>
       <c r="H211" s="11">
@@ -7093,9 +7093,9 @@
       </c>
     </row>
     <row r="212" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A212" s="24"/>
-      <c r="B212" s="12"/>
-      <c r="C212" s="25" t="s">
+      <c r="A212" s="32"/>
+      <c r="B212" s="31"/>
+      <c r="C212" s="23" t="s">
         <v>156</v>
       </c>
       <c r="D212" s="5"/>
@@ -7103,7 +7103,7 @@
         <v>8</v>
       </c>
       <c r="F212" s="5"/>
-      <c r="G212" s="14">
+      <c r="G212" s="13">
         <v>1</v>
       </c>
       <c r="H212" s="11">
@@ -7120,9 +7120,9 @@
       </c>
     </row>
     <row r="213" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A213" s="24"/>
-      <c r="B213" s="12"/>
-      <c r="C213" s="25" t="s">
+      <c r="A213" s="32"/>
+      <c r="B213" s="31"/>
+      <c r="C213" s="23" t="s">
         <v>157</v>
       </c>
       <c r="D213" s="5"/>
@@ -7130,7 +7130,7 @@
         <v>8</v>
       </c>
       <c r="F213" s="5"/>
-      <c r="G213" s="14">
+      <c r="G213" s="13">
         <v>1</v>
       </c>
       <c r="H213" s="11">
@@ -7147,9 +7147,9 @@
       </c>
     </row>
     <row r="214" spans="1:10" ht="15.75">
-      <c r="A214" s="24"/>
-      <c r="B214" s="12"/>
-      <c r="C214" s="25" t="s">
+      <c r="A214" s="32"/>
+      <c r="B214" s="31"/>
+      <c r="C214" s="23" t="s">
         <v>155</v>
       </c>
       <c r="D214" s="5"/>
@@ -7157,7 +7157,7 @@
         <v>8</v>
       </c>
       <c r="F214" s="5"/>
-      <c r="G214" s="14">
+      <c r="G214" s="13">
         <v>1</v>
       </c>
       <c r="H214" s="11">
@@ -7174,13 +7174,13 @@
       </c>
     </row>
     <row r="215" spans="1:10" ht="15.75">
-      <c r="A215" s="24">
+      <c r="A215" s="32">
         <v>15</v>
       </c>
-      <c r="B215" s="12" t="s">
+      <c r="B215" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C215" s="25" t="s">
+      <c r="C215" s="23" t="s">
         <v>158</v>
       </c>
       <c r="D215" s="5"/>
@@ -7188,7 +7188,7 @@
       <c r="F215" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G215" s="14">
+      <c r="G215" s="13">
         <v>1</v>
       </c>
       <c r="H215" s="11">
@@ -7205,9 +7205,9 @@
       </c>
     </row>
     <row r="216" spans="1:10" ht="15.75">
-      <c r="A216" s="24"/>
-      <c r="B216" s="12"/>
-      <c r="C216" s="25" t="s">
+      <c r="A216" s="32"/>
+      <c r="B216" s="31"/>
+      <c r="C216" s="23" t="s">
         <v>159</v>
       </c>
       <c r="D216" s="5"/>
@@ -7215,7 +7215,7 @@
       <c r="F216" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G216" s="14">
+      <c r="G216" s="13">
         <v>1</v>
       </c>
       <c r="H216" s="11">
@@ -7232,9 +7232,9 @@
       </c>
     </row>
     <row r="217" spans="1:10" ht="15.75">
-      <c r="A217" s="24"/>
-      <c r="B217" s="12"/>
-      <c r="C217" s="25" t="s">
+      <c r="A217" s="32"/>
+      <c r="B217" s="31"/>
+      <c r="C217" s="23" t="s">
         <v>160</v>
       </c>
       <c r="D217" s="5"/>
@@ -7242,7 +7242,7 @@
       <c r="F217" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G217" s="14">
+      <c r="G217" s="13">
         <v>1</v>
       </c>
       <c r="H217" s="11">
@@ -7259,13 +7259,13 @@
       </c>
     </row>
     <row r="218" spans="1:10" ht="15.75">
-      <c r="A218" s="24">
+      <c r="A218" s="32">
         <v>17</v>
       </c>
-      <c r="B218" s="12" t="s">
+      <c r="B218" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C218" s="25" t="s">
+      <c r="C218" s="23" t="s">
         <v>149</v>
       </c>
       <c r="D218" s="5" t="s">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
-      <c r="G218" s="14">
+      <c r="G218" s="13">
         <v>1</v>
       </c>
       <c r="H218" s="11">
@@ -7290,9 +7290,9 @@
       </c>
     </row>
     <row r="219" spans="1:10" ht="15.75">
-      <c r="A219" s="24"/>
-      <c r="B219" s="12"/>
-      <c r="C219" s="25" t="s">
+      <c r="A219" s="32"/>
+      <c r="B219" s="31"/>
+      <c r="C219" s="23" t="s">
         <v>150</v>
       </c>
       <c r="D219" s="5" t="s">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
-      <c r="G219" s="14">
+      <c r="G219" s="13">
         <v>1</v>
       </c>
       <c r="H219" s="11">
@@ -7317,9 +7317,9 @@
       </c>
     </row>
     <row r="220" spans="1:10" ht="15.75">
-      <c r="A220" s="24"/>
-      <c r="B220" s="12"/>
-      <c r="C220" s="25" t="s">
+      <c r="A220" s="32"/>
+      <c r="B220" s="31"/>
+      <c r="C220" s="23" t="s">
         <v>151</v>
       </c>
       <c r="D220" s="5" t="s">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
-      <c r="G220" s="14">
+      <c r="G220" s="13">
         <v>1</v>
       </c>
       <c r="H220" s="11">
@@ -7344,9 +7344,9 @@
       </c>
     </row>
     <row r="221" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A221" s="24"/>
-      <c r="B221" s="12"/>
-      <c r="C221" s="25" t="s">
+      <c r="A221" s="32"/>
+      <c r="B221" s="31"/>
+      <c r="C221" s="23" t="s">
         <v>153</v>
       </c>
       <c r="D221" s="5" t="s">
@@ -7354,7 +7354,7 @@
       </c>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
-      <c r="G221" s="14">
+      <c r="G221" s="13">
         <v>1</v>
       </c>
       <c r="H221" s="11">
@@ -7371,9 +7371,9 @@
       </c>
     </row>
     <row r="222" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A222" s="24"/>
-      <c r="B222" s="12"/>
-      <c r="C222" s="25" t="s">
+      <c r="A222" s="32"/>
+      <c r="B222" s="31"/>
+      <c r="C222" s="23" t="s">
         <v>154</v>
       </c>
       <c r="D222" s="5" t="s">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
-      <c r="G222" s="14">
+      <c r="G222" s="13">
         <v>1</v>
       </c>
       <c r="H222" s="11">
@@ -7398,9 +7398,9 @@
       </c>
     </row>
     <row r="223" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A223" s="24"/>
-      <c r="B223" s="12"/>
-      <c r="C223" s="25" t="s">
+      <c r="A223" s="32"/>
+      <c r="B223" s="31"/>
+      <c r="C223" s="23" t="s">
         <v>114</v>
       </c>
       <c r="D223" s="5" t="s">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
-      <c r="G223" s="14">
+      <c r="G223" s="13">
         <v>1</v>
       </c>
       <c r="H223" s="11">
@@ -7425,9 +7425,9 @@
       </c>
     </row>
     <row r="224" spans="1:10" ht="15.75">
-      <c r="A224" s="24"/>
-      <c r="B224" s="12"/>
-      <c r="C224" s="25" t="s">
+      <c r="A224" s="32"/>
+      <c r="B224" s="31"/>
+      <c r="C224" s="23" t="s">
         <v>152</v>
       </c>
       <c r="D224" s="5" t="s">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
-      <c r="G224" s="14">
+      <c r="G224" s="13">
         <v>1</v>
       </c>
       <c r="H224" s="11">
@@ -7452,9 +7452,9 @@
       </c>
     </row>
     <row r="225" spans="1:10" ht="15.75">
-      <c r="A225" s="24"/>
-      <c r="B225" s="12"/>
-      <c r="C225" s="25" t="s">
+      <c r="A225" s="32"/>
+      <c r="B225" s="31"/>
+      <c r="C225" s="23" t="s">
         <v>142</v>
       </c>
       <c r="D225" s="5" t="s">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
-      <c r="G225" s="14">
+      <c r="G225" s="13">
         <v>1</v>
       </c>
       <c r="H225" s="11">
@@ -7479,13 +7479,13 @@
       </c>
     </row>
     <row r="226" spans="1:10" ht="15.75">
-      <c r="A226" s="24">
+      <c r="A226" s="32">
         <v>18</v>
       </c>
-      <c r="B226" s="12" t="s">
+      <c r="B226" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C226" s="25" t="s">
+      <c r="C226" s="23" t="s">
         <v>144</v>
       </c>
       <c r="D226" s="5" t="s">
@@ -7493,7 +7493,7 @@
       </c>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
-      <c r="G226" s="14">
+      <c r="G226" s="13">
         <v>5</v>
       </c>
       <c r="H226" s="11">
@@ -7510,9 +7510,9 @@
       </c>
     </row>
     <row r="227" spans="1:10" ht="15.75">
-      <c r="A227" s="24"/>
-      <c r="B227" s="12"/>
-      <c r="C227" s="25" t="s">
+      <c r="A227" s="32"/>
+      <c r="B227" s="31"/>
+      <c r="C227" s="23" t="s">
         <v>147</v>
       </c>
       <c r="D227" s="5" t="s">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
-      <c r="G227" s="14">
+      <c r="G227" s="13">
         <v>5</v>
       </c>
       <c r="H227" s="11">
@@ -7537,13 +7537,13 @@
       </c>
     </row>
     <row r="228" spans="1:10" ht="15.75">
-      <c r="A228" s="24">
+      <c r="A228" s="32">
         <v>19</v>
       </c>
-      <c r="B228" s="12" t="s">
+      <c r="B228" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="C228" s="25" t="s">
+      <c r="C228" s="23" t="s">
         <v>145</v>
       </c>
       <c r="D228" s="5"/>
@@ -7551,7 +7551,7 @@
       <c r="F228" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G228" s="14">
+      <c r="G228" s="13">
         <v>5</v>
       </c>
       <c r="H228" s="11">
@@ -7568,9 +7568,9 @@
       </c>
     </row>
     <row r="229" spans="1:10" s="1" customFormat="1" ht="15.75">
-      <c r="A229" s="24"/>
-      <c r="B229" s="12"/>
-      <c r="C229" s="25" t="s">
+      <c r="A229" s="32"/>
+      <c r="B229" s="31"/>
+      <c r="C229" s="23" t="s">
         <v>148</v>
       </c>
       <c r="D229" s="5"/>
@@ -7578,7 +7578,7 @@
         <v>8</v>
       </c>
       <c r="F229" s="5"/>
-      <c r="G229" s="14">
+      <c r="G229" s="13">
         <v>5</v>
       </c>
       <c r="H229" s="11">
@@ -7595,17 +7595,17 @@
       </c>
     </row>
     <row r="230" spans="1:10" ht="15.75">
-      <c r="A230" s="24"/>
-      <c r="B230" s="12"/>
-      <c r="C230" s="13" t="s">
+      <c r="A230" s="32"/>
+      <c r="B230" s="31"/>
+      <c r="C230" s="12" t="s">
         <v>146</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E230" s="13"/>
-      <c r="F230" s="13"/>
-      <c r="G230" s="13">
+      <c r="E230" s="12"/>
+      <c r="F230" s="12"/>
+      <c r="G230" s="12">
         <v>5</v>
       </c>
       <c r="H230" s="11">
@@ -7623,20 +7623,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B228:B230"/>
-    <mergeCell ref="A228:A230"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="A218:A225"/>
-    <mergeCell ref="B218:B225"/>
-    <mergeCell ref="A211:A214"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="A215:A217"/>
-    <mergeCell ref="B215:B217"/>
-    <mergeCell ref="A186:A189"/>
-    <mergeCell ref="B186:B189"/>
-    <mergeCell ref="A190:A210"/>
-    <mergeCell ref="B190:B210"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="A10:A22"/>
+    <mergeCell ref="B10:B22"/>
+    <mergeCell ref="A23:A62"/>
+    <mergeCell ref="B23:B62"/>
     <mergeCell ref="A157:A181"/>
     <mergeCell ref="B157:B181"/>
     <mergeCell ref="A182:A183"/>
@@ -7647,12 +7639,20 @@
     <mergeCell ref="B112:B137"/>
     <mergeCell ref="A138:A156"/>
     <mergeCell ref="B138:B156"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="A10:A22"/>
-    <mergeCell ref="B10:B22"/>
-    <mergeCell ref="A23:A62"/>
-    <mergeCell ref="B23:B62"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="A215:A217"/>
+    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="A190:A210"/>
+    <mergeCell ref="B190:B210"/>
+    <mergeCell ref="B228:B230"/>
+    <mergeCell ref="A228:A230"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="A226:A227"/>
+    <mergeCell ref="A218:A225"/>
+    <mergeCell ref="B218:B225"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F97:F98 F86 F90 D90 E92:E95 G84:G85 D2:F85 G2:G80">
